--- a/biology/Histoire de la zoologie et de la botanique/John_Zachary_Young/John_Zachary_Young.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Zachary_Young/John_Zachary_Young.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Zachary Young est un zoologiste britannique, né le 18 mars 1907 à Bristol et mort le 4 juillet 1997 à Oxford.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Marlborough College et au Magdalen College d’Oxford où il est diplômé de zoologie en 1928. Il est professeur d’anatomie à l’University College de Londres de 1945 à 1974 avant de devenir professeur émérite. Il devient membre honoraire en 1975.
 Young étudie principalement le système nerveux et découvre l’axone géant chez le poulpe. Il est surtout célèbre pour ses deux manuels, The Life of Vertebrates et The Life of Mammals.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Life of Vertebrates, 1950, troisième édition en 1981
 Doubt and Certainty in Science, 1951
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Zachary Young » (voir la liste des auteurs) (version du 17 juin 2006).</t>
         </is>
